--- a/us-zip-code-latitude-and-longitude.xlsx
+++ b/us-zip-code-latitude-and-longitude.xlsx
@@ -19,198 +19,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="10">
   <si>
-    <t>Zip;City;State;Latitude;Longitude;Timezone;Daylight savings time flag;geopoint</t>
+    <t>Zip</t>
   </si>
   <si>
-    <t>97298;Portland;OR;45.548616;-123.114725;-8;1;45.548616</t>
+    <t>City</t>
   </si>
   <si>
-    <t>97233;Portland;OR;45.513242;-122.49985;-8;1;45.513242</t>
+    <t>State</t>
   </si>
   <si>
-    <t>97223;Portland;OR;45.43884;-122.78224;-8;1;45.43884</t>
+    <t>Latitude</t>
   </si>
   <si>
-    <t>97281;Portland;OR;45.548616;-123.114725;-8;1;45.548616</t>
+    <t>Longitude</t>
   </si>
   <si>
-    <t>97238;Portland;OR;45.580557;-122.374776;-8;1;45.580557</t>
+    <t>Timezone</t>
   </si>
   <si>
-    <t>97215;Portland;OR;45.514241;-122.60089;-8;1;45.514241</t>
+    <t>Daylight savings time flag</t>
   </si>
   <si>
-    <t>97207;Portland;OR;45.480324;-122.711117;-8;1;45.480324</t>
+    <t>geopoint</t>
   </si>
   <si>
-    <t>97296;Portland;OR;45.580557;-122.374776;-8;1;45.580557</t>
+    <t>Portland</t>
   </si>
   <si>
-    <t>97293;Portland;OR;45.580557;-122.374776;-8;1;45.580557</t>
-  </si>
-  <si>
-    <t>97267;Portland;OR;45.408882;-122.61476;-8;1;45.408882</t>
-  </si>
-  <si>
-    <t>97299;Portland;OR;45.580557;-122.374776;-8;1;45.580557</t>
-  </si>
-  <si>
-    <t>97213;Portland;OR;45.53704;-122.59979;-8;1;45.53704</t>
-  </si>
-  <si>
-    <t>97266;Portland;OR;45.478641;-122.56233;-8;1;45.478641</t>
-  </si>
-  <si>
-    <t>97209;Portland;OR;45.52889;-122.68458;-8;1;45.52889</t>
-  </si>
-  <si>
-    <t>97256;Portland;OR;45.580557;-122.374776;-8;1;45.580557</t>
-  </si>
-  <si>
-    <t>97217;Portland;OR;45.574439;-122.68665;-8;1;45.574439</t>
-  </si>
-  <si>
-    <t>97206;Portland;OR;45.482341;-122.60007;-8;1;45.482341</t>
-  </si>
-  <si>
-    <t>97231;Portland;OR;45.651279;-122.82465;-8;1;45.651279</t>
-  </si>
-  <si>
-    <t>97230;Portland;OR;45.539473;-122.50488;-8;1;45.539473</t>
-  </si>
-  <si>
-    <t>97229;Portland;OR;45.540967;-122.81728;-8;1;45.540967</t>
-  </si>
-  <si>
-    <t>97254;Portland;OR;45.596678;-122.59418;-8;1;45.596678</t>
-  </si>
-  <si>
-    <t>97202;Portland;OR;45.481791;-122.64055;-8;1;45.481791</t>
-  </si>
-  <si>
-    <t>97222;Portland;OR;45.442634;-122.61833;-8;1;45.442634</t>
-  </si>
-  <si>
-    <t>97258;Portland;OR;45.580557;-122.374776;-8;1;45.580557</t>
-  </si>
-  <si>
-    <t>97232;Portland;OR;45.52874;-122.6446;-8;1;45.52874</t>
-  </si>
-  <si>
-    <t>97227;Portland;OR;45.543831;-122.67497;-8;1;45.543831</t>
-  </si>
-  <si>
-    <t>97259;Portland;OR;45.580557;-122.374776;-8;1;45.580557</t>
-  </si>
-  <si>
-    <t>97294;Portland;OR;45.580557;-122.374776;-8;1;45.580557</t>
-  </si>
-  <si>
-    <t>97271;Portland;OR;45.580557;-122.374776;-8;1;45.580557</t>
-  </si>
-  <si>
-    <t>97228;Portland;OR;45.580557;-122.374776;-8;1;45.580557</t>
-  </si>
-  <si>
-    <t>97292;Portland;OR;45.580557;-122.374776;-8;1;45.580557</t>
-  </si>
-  <si>
-    <t>97225;Portland;OR;45.497856;-122.76988;-8;1;45.497856</t>
-  </si>
-  <si>
-    <t>97283;Portland;OR;45.580557;-122.374776;-8;1;45.580557</t>
-  </si>
-  <si>
-    <t>97205;Portland;OR;45.52054;-122.68573;-8;1;45.52054</t>
-  </si>
-  <si>
-    <t>97236;Portland;OR;45.474722;-122.50997;-8;1;45.474722</t>
-  </si>
-  <si>
-    <t>97219;Portland;OR;45.45867;-122.70611;-8;1;45.45867</t>
-  </si>
-  <si>
-    <t>97286;Portland;OR;45.580557;-122.374776;-8;1;45.580557</t>
-  </si>
-  <si>
-    <t>97255;Portland;OR;45.580557;-122.374776;-8;1;45.580557</t>
-  </si>
-  <si>
-    <t>97216;Portland;OR;45.515674;-122.56087;-8;1;45.515674</t>
-  </si>
-  <si>
-    <t>97203;Portland;OR;45.589689;-122.73875;-8;1;45.589689</t>
-  </si>
-  <si>
-    <t>97210;Portland;OR;45.534839;-122.7095;-8;1;45.534839</t>
-  </si>
-  <si>
-    <t>97214;Portland;OR;45.51379;-122.6458;-8;1;45.51379</t>
-  </si>
-  <si>
-    <t>97208;Portland;OR;45.532165;-122.564824;-8;1;45.532165</t>
-  </si>
-  <si>
-    <t>97240;Portland;OR;45.580557;-122.374776;-8;1;45.580557</t>
-  </si>
-  <si>
-    <t>97239;Portland;OR;45.488031;-122.693796;-8;1;45.488031</t>
-  </si>
-  <si>
-    <t>97221;Portland;OR;45.49759;-122.72945;-8;1;45.49759</t>
-  </si>
-  <si>
-    <t>97204;Portland;OR;45.51854;-122.6755;-8;1;45.51854</t>
-  </si>
-  <si>
-    <t>97291;Portland;OR;45.548616;-123.114725;-8;1;45.548616</t>
-  </si>
-  <si>
-    <t>97220;Portland;OR;45.546205;-122.56027;-8;1;45.546205</t>
-  </si>
-  <si>
-    <t>97272;Portland;OR;45.580557;-122.374776;-8;1;45.580557</t>
-  </si>
-  <si>
-    <t>97224;Portland;OR;45.406292;-122.78441;-8;1;45.406292</t>
-  </si>
-  <si>
-    <t>97218;Portland;OR;45.56099;-122.59987;-8;1;45.56099</t>
-  </si>
-  <si>
-    <t>97242;Portland;OR;45.580557;-122.374776;-8;1;45.580557</t>
-  </si>
-  <si>
-    <t>97251;Portland;OR;45.580557;-122.374776;-8;1;45.580557</t>
-  </si>
-  <si>
-    <t>97290;Portland;OR;45.580557;-122.374776;-8;1;45.580557</t>
-  </si>
-  <si>
-    <t>97268;Portland;OR;45.173284;-122.259861;-8;1;45.173284</t>
-  </si>
-  <si>
-    <t>97201;Portland;OR;45.49894;-122.68781;-8;1;45.49894</t>
-  </si>
-  <si>
-    <t>97211;Portland;OR;45.56544;-122.64635;-8;1;45.56544</t>
-  </si>
-  <si>
-    <t>97280;Portland;OR;45.580557;-122.374776;-8;1;45.580557</t>
-  </si>
-  <si>
-    <t>97282;Portland;OR;45.580557;-122.374776;-8;1;45.580557</t>
-  </si>
-  <si>
-    <t>97212;Portland;OR;45.54424;-122.64353;-8;1;45.54424</t>
-  </si>
-  <si>
-    <t>97269;Portland;OR;45.173284;-122.259861;-8;1;45.173284</t>
-  </si>
-  <si>
-    <t>97253;Portland;OR;45.580557;-122.374776;-8;1;45.580557</t>
+    <t>OR</t>
   </si>
 </sst>
 </file>
@@ -1017,332 +855,1676 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A64"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>63</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>97298</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>45.548616000000003</v>
+      </c>
+      <c r="E2">
+        <v>-123.11472500000001</v>
+      </c>
+      <c r="F2">
+        <v>-8</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>45.548616000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>97233</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>45.513241999999998</v>
+      </c>
+      <c r="E3">
+        <v>-122.49985</v>
+      </c>
+      <c r="F3">
+        <v>-8</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>45.513241999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>97223</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>45.438839999999999</v>
+      </c>
+      <c r="E4">
+        <v>-122.78224</v>
+      </c>
+      <c r="F4">
+        <v>-8</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>45.438839999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>97281</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>45.548616000000003</v>
+      </c>
+      <c r="E5">
+        <v>-123.11472500000001</v>
+      </c>
+      <c r="F5">
+        <v>-8</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>45.548616000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>97238</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>45.580556999999999</v>
+      </c>
+      <c r="E6">
+        <v>-122.374776</v>
+      </c>
+      <c r="F6">
+        <v>-8</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>45.580556999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>97215</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>45.514240999999998</v>
+      </c>
+      <c r="E7">
+        <v>-122.60089000000001</v>
+      </c>
+      <c r="F7">
+        <v>-8</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>45.514240999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>97207</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>45.480324000000003</v>
+      </c>
+      <c r="E8">
+        <v>-122.711117</v>
+      </c>
+      <c r="F8">
+        <v>-8</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>45.480324000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>97296</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>45.580556999999999</v>
+      </c>
+      <c r="E9">
+        <v>-122.374776</v>
+      </c>
+      <c r="F9">
+        <v>-8</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>45.580556999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>97293</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>45.580556999999999</v>
+      </c>
+      <c r="E10">
+        <v>-122.374776</v>
+      </c>
+      <c r="F10">
+        <v>-8</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>45.580556999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>97267</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>45.408881999999998</v>
+      </c>
+      <c r="E11">
+        <v>-122.61476</v>
+      </c>
+      <c r="F11">
+        <v>-8</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>45.408881999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>97299</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>45.580556999999999</v>
+      </c>
+      <c r="E12">
+        <v>-122.374776</v>
+      </c>
+      <c r="F12">
+        <v>-8</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>45.580556999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>97213</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>45.537039999999998</v>
+      </c>
+      <c r="E13">
+        <v>-122.59979</v>
+      </c>
+      <c r="F13">
+        <v>-8</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>45.537039999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>97266</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>45.478641000000003</v>
+      </c>
+      <c r="E14">
+        <v>-122.56233</v>
+      </c>
+      <c r="F14">
+        <v>-8</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>45.478641000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>97209</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>45.528889999999997</v>
+      </c>
+      <c r="E15">
+        <v>-122.68458</v>
+      </c>
+      <c r="F15">
+        <v>-8</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>45.528889999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>97256</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>45.580556999999999</v>
+      </c>
+      <c r="E16">
+        <v>-122.374776</v>
+      </c>
+      <c r="F16">
+        <v>-8</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>45.580556999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>97217</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>45.574438999999998</v>
+      </c>
+      <c r="E17">
+        <v>-122.68665</v>
+      </c>
+      <c r="F17">
+        <v>-8</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>45.574438999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>97206</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>45.482340999999998</v>
+      </c>
+      <c r="E18">
+        <v>-122.60007</v>
+      </c>
+      <c r="F18">
+        <v>-8</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>45.482340999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>97231</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>45.651279000000002</v>
+      </c>
+      <c r="E19">
+        <v>-122.82465000000001</v>
+      </c>
+      <c r="F19">
+        <v>-8</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>45.651279000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>97230</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>45.539473000000001</v>
+      </c>
+      <c r="E20">
+        <v>-122.50488</v>
+      </c>
+      <c r="F20">
+        <v>-8</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>45.539473000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>97229</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>45.540967000000002</v>
+      </c>
+      <c r="E21">
+        <v>-122.81728</v>
+      </c>
+      <c r="F21">
+        <v>-8</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>45.540967000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>97254</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22">
+        <v>45.596677999999997</v>
+      </c>
+      <c r="E22">
+        <v>-122.59417999999999</v>
+      </c>
+      <c r="F22">
+        <v>-8</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>45.596677999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>97202</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>45.481791000000001</v>
+      </c>
+      <c r="E23">
+        <v>-122.64055</v>
+      </c>
+      <c r="F23">
+        <v>-8</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>45.481791000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>97222</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <v>45.442633999999998</v>
+      </c>
+      <c r="E24">
+        <v>-122.61833</v>
+      </c>
+      <c r="F24">
+        <v>-8</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>45.442633999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>97258</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>45.580556999999999</v>
+      </c>
+      <c r="E25">
+        <v>-122.374776</v>
+      </c>
+      <c r="F25">
+        <v>-8</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>45.580556999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>97232</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>45.528739999999999</v>
+      </c>
+      <c r="E26">
+        <v>-122.6446</v>
+      </c>
+      <c r="F26">
+        <v>-8</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>45.528739999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>97227</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27">
+        <v>45.543830999999997</v>
+      </c>
+      <c r="E27">
+        <v>-122.67497</v>
+      </c>
+      <c r="F27">
+        <v>-8</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>45.543830999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>97259</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>45.580556999999999</v>
+      </c>
+      <c r="E28">
+        <v>-122.374776</v>
+      </c>
+      <c r="F28">
+        <v>-8</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>45.580556999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>97294</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>45.580556999999999</v>
+      </c>
+      <c r="E29">
+        <v>-122.374776</v>
+      </c>
+      <c r="F29">
+        <v>-8</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>45.580556999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>97271</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30">
+        <v>45.580556999999999</v>
+      </c>
+      <c r="E30">
+        <v>-122.374776</v>
+      </c>
+      <c r="F30">
+        <v>-8</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>45.580556999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>97228</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31">
+        <v>45.580556999999999</v>
+      </c>
+      <c r="E31">
+        <v>-122.374776</v>
+      </c>
+      <c r="F31">
+        <v>-8</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>45.580556999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>97292</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>45.580556999999999</v>
+      </c>
+      <c r="E32">
+        <v>-122.374776</v>
+      </c>
+      <c r="F32">
+        <v>-8</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>45.580556999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>97225</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <v>45.497855999999999</v>
+      </c>
+      <c r="E33">
+        <v>-122.76988</v>
+      </c>
+      <c r="F33">
+        <v>-8</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>45.497855999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>97283</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34">
+        <v>45.580556999999999</v>
+      </c>
+      <c r="E34">
+        <v>-122.374776</v>
+      </c>
+      <c r="F34">
+        <v>-8</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>45.580556999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>97205</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>45.520539999999997</v>
+      </c>
+      <c r="E35">
+        <v>-122.68573000000001</v>
+      </c>
+      <c r="F35">
+        <v>-8</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>45.520539999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>97236</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <v>45.474722</v>
+      </c>
+      <c r="E36">
+        <v>-122.50997</v>
+      </c>
+      <c r="F36">
+        <v>-8</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>45.474722</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>97219</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <v>45.458669999999998</v>
+      </c>
+      <c r="E37">
+        <v>-122.70611</v>
+      </c>
+      <c r="F37">
+        <v>-8</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>45.458669999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>97286</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>45.580556999999999</v>
+      </c>
+      <c r="E38">
+        <v>-122.374776</v>
+      </c>
+      <c r="F38">
+        <v>-8</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>45.580556999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>97255</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <v>45.580556999999999</v>
+      </c>
+      <c r="E39">
+        <v>-122.374776</v>
+      </c>
+      <c r="F39">
+        <v>-8</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>45.580556999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>97216</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>45.515673999999997</v>
+      </c>
+      <c r="E40">
+        <v>-122.56086999999999</v>
+      </c>
+      <c r="F40">
+        <v>-8</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>45.515673999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>97203</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <v>45.589689</v>
+      </c>
+      <c r="E41">
+        <v>-122.73875</v>
+      </c>
+      <c r="F41">
+        <v>-8</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>45.589689</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>97210</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>45.534838999999998</v>
+      </c>
+      <c r="E42">
+        <v>-122.70950000000001</v>
+      </c>
+      <c r="F42">
+        <v>-8</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>45.534838999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>97214</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>45.51379</v>
+      </c>
+      <c r="E43">
+        <v>-122.64579999999999</v>
+      </c>
+      <c r="F43">
+        <v>-8</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>45.51379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>97208</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <v>45.532164999999999</v>
+      </c>
+      <c r="E44">
+        <v>-122.564824</v>
+      </c>
+      <c r="F44">
+        <v>-8</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>45.532164999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>97240</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>45.580556999999999</v>
+      </c>
+      <c r="E45">
+        <v>-122.374776</v>
+      </c>
+      <c r="F45">
+        <v>-8</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>45.580556999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>97239</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>45.488030999999999</v>
+      </c>
+      <c r="E46">
+        <v>-122.69379600000001</v>
+      </c>
+      <c r="F46">
+        <v>-8</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>45.488030999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>97221</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47">
+        <v>45.497590000000002</v>
+      </c>
+      <c r="E47">
+        <v>-122.72945</v>
+      </c>
+      <c r="F47">
+        <v>-8</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>45.497590000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>97204</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>45.518540000000002</v>
+      </c>
+      <c r="E48">
+        <v>-122.6755</v>
+      </c>
+      <c r="F48">
+        <v>-8</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>45.518540000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>97291</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49">
+        <v>45.548616000000003</v>
+      </c>
+      <c r="E49">
+        <v>-123.11472500000001</v>
+      </c>
+      <c r="F49">
+        <v>-8</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>45.548616000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>97220</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50">
+        <v>45.546205</v>
+      </c>
+      <c r="E50">
+        <v>-122.56027</v>
+      </c>
+      <c r="F50">
+        <v>-8</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>45.546205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>97272</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51">
+        <v>45.580556999999999</v>
+      </c>
+      <c r="E51">
+        <v>-122.374776</v>
+      </c>
+      <c r="F51">
+        <v>-8</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>45.580556999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>97224</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>45.406292000000001</v>
+      </c>
+      <c r="E52">
+        <v>-122.78440999999999</v>
+      </c>
+      <c r="F52">
+        <v>-8</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>45.406292000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>97218</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53">
+        <v>45.560989999999997</v>
+      </c>
+      <c r="E53">
+        <v>-122.59987</v>
+      </c>
+      <c r="F53">
+        <v>-8</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>45.560989999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>97242</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>45.580556999999999</v>
+      </c>
+      <c r="E54">
+        <v>-122.374776</v>
+      </c>
+      <c r="F54">
+        <v>-8</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>45.580556999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>97251</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55">
+        <v>45.580556999999999</v>
+      </c>
+      <c r="E55">
+        <v>-122.374776</v>
+      </c>
+      <c r="F55">
+        <v>-8</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>45.580556999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>97290</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <v>45.580556999999999</v>
+      </c>
+      <c r="E56">
+        <v>-122.374776</v>
+      </c>
+      <c r="F56">
+        <v>-8</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>45.580556999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>97268</v>
+      </c>
+      <c r="B57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57">
+        <v>45.173284000000002</v>
+      </c>
+      <c r="E57">
+        <v>-122.259861</v>
+      </c>
+      <c r="F57">
+        <v>-8</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>45.173284000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>97201</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58">
+        <v>45.498939999999997</v>
+      </c>
+      <c r="E58">
+        <v>-122.68781</v>
+      </c>
+      <c r="F58">
+        <v>-8</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>45.498939999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>97211</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59">
+        <v>45.565440000000002</v>
+      </c>
+      <c r="E59">
+        <v>-122.64635</v>
+      </c>
+      <c r="F59">
+        <v>-8</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>45.565440000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>97280</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60">
+        <v>45.580556999999999</v>
+      </c>
+      <c r="E60">
+        <v>-122.374776</v>
+      </c>
+      <c r="F60">
+        <v>-8</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>45.580556999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>97282</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61">
+        <v>45.580556999999999</v>
+      </c>
+      <c r="E61">
+        <v>-122.374776</v>
+      </c>
+      <c r="F61">
+        <v>-8</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>45.580556999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>97212</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62">
+        <v>45.544240000000002</v>
+      </c>
+      <c r="E62">
+        <v>-122.64353</v>
+      </c>
+      <c r="F62">
+        <v>-8</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>45.544240000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>97269</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <v>45.173284000000002</v>
+      </c>
+      <c r="E63">
+        <v>-122.259861</v>
+      </c>
+      <c r="F63">
+        <v>-8</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>45.173284000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>97253</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64">
+        <v>45.580556999999999</v>
+      </c>
+      <c r="E64">
+        <v>-122.374776</v>
+      </c>
+      <c r="F64">
+        <v>-8</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>45.580556999999999</v>
       </c>
     </row>
   </sheetData>
